--- a/medicine/Médecine vétérinaire/Fulgence_Raymond/Fulgence_Raymond.xlsx
+++ b/medicine/Médecine vétérinaire/Fulgence_Raymond/Fulgence_Raymond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fulgence Raymond, né le 29 septembre 1844 à Saint-Christophe (Indre-et-Loire)[1] et mort le 28 septembre 1910 au château de la Planche d'Andillé, près de Poitiers, est un neurologue français qui succéda à Jean-Martin Charcot (1825-1893) comme titulaire de la Chaire de neurologie de la Salpêtrière en 1894, après une brève période d'intérim assurée par Édouard Brissaud.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fulgence Raymond, né le 29 septembre 1844 à Saint-Christophe (Indre-et-Loire) et mort le 28 septembre 1910 au château de la Planche d'Andillé, près de Poitiers, est un neurologue français qui succéda à Jean-Martin Charcot (1825-1893) comme titulaire de la Chaire de neurologie de la Salpêtrière en 1894, après une brève période d'intérim assurée par Édouard Brissaud.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut vétérinaire avant d'être médecin. Il compta parmi ses maîtres à Paris Alfred Vulpian (1826-1887). Il eut comme collaborateurs des médecins prestigieux tels que Joseph Babinski (1857-1932), Georges Marinesco (1863-1938) et Pierre Marie (1853-1940). Il eut notamment en tant qu'élèves le radiologue Jean-Athanase Sicard (1872-1929) et le dermatologue Albert Sézary.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses contributions à l'histoire des connaissances en neurologie concernent les névrites, les maladies spinales comme la  syringomyélie ou le tabes dorsalis et l'hémianesthésie (perte de la sensibilité d'une moitié du corps). Il rapporta avec Charcot les premières observations de Syndrome post-poliomyélite.
 Avec le psychologue Pierre Janet (1859-1947), il étudie les névroses et les troubles psychosomatiques.
@@ -574,7 +590,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nouveau traité des formes extérieures du cheval, J. Dumaine (Paris), 1868.
  Étude anatomique, physiologique et clinique sur l'hémichorée, l'hémianesthésie et les tremblements symptomatiques, A. Delahaye et Cie (Paris), 1876, lire en ligne sur Gallica.
@@ -624,9 +642,11 @@
           <t>Titres, prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Légion d'honneur : Chevalier 6 janvier 1890, Officier le 31 décembre 1897, Commandeur le 15 juillet 1908[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Légion d'honneur : Chevalier 6 janvier 1890, Officier le 31 décembre 1897, Commandeur le 15 juillet 1908.
 Académie de médecine, 1899.</t>
         </is>
       </c>
